--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Nppa</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H2">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I2">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J2">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4181826666666666</v>
+        <v>0.01941266666666666</v>
       </c>
       <c r="N2">
-        <v>1.254548</v>
+        <v>0.058238</v>
       </c>
       <c r="O2">
-        <v>0.2449873014729237</v>
+        <v>0.01959774779686022</v>
       </c>
       <c r="P2">
-        <v>0.2627048370182498</v>
+        <v>0.01978237955823044</v>
       </c>
       <c r="Q2">
-        <v>0.01049526977955556</v>
+        <v>0.001949122325777777</v>
       </c>
       <c r="R2">
-        <v>0.094457428016</v>
+        <v>0.017542100932</v>
       </c>
       <c r="S2">
-        <v>0.01603502984794315</v>
+        <v>0.00724706633996391</v>
       </c>
       <c r="T2">
-        <v>0.01847358266245575</v>
+        <v>0.008832170296019078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H3">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I3">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J3">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.830225</v>
       </c>
       <c r="O3">
-        <v>0.5526844611056775</v>
+        <v>0.9524028256184742</v>
       </c>
       <c r="P3">
-        <v>0.5926547229360503</v>
+        <v>0.9613754796729409</v>
       </c>
       <c r="Q3">
-        <v>0.02367703341111111</v>
+        <v>0.09472259923888887</v>
       </c>
       <c r="R3">
-        <v>0.2130933007</v>
+        <v>0.8525033931499999</v>
       </c>
       <c r="S3">
-        <v>0.03617457630269619</v>
+        <v>0.3521897787016099</v>
       </c>
       <c r="T3">
-        <v>0.0416758828604795</v>
+        <v>0.4292219714971426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H4">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I4">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J4">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +676,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.3453655</v>
+        <v>0.027735</v>
       </c>
       <c r="N4">
-        <v>0.6907310000000001</v>
+        <v>0.05547</v>
       </c>
       <c r="O4">
-        <v>0.2023282374213989</v>
+        <v>0.02799942658466558</v>
       </c>
       <c r="P4">
-        <v>0.1446404400456999</v>
+        <v>0.01884214076882864</v>
       </c>
       <c r="Q4">
-        <v>0.008667753075333334</v>
+        <v>0.00278472343</v>
       </c>
       <c r="R4">
-        <v>0.05200651845200001</v>
+        <v>0.01670834058</v>
       </c>
       <c r="S4">
-        <v>0.01324288771960055</v>
+        <v>0.01035392964759602</v>
       </c>
       <c r="T4">
-        <v>0.0101712140356692</v>
+        <v>0.008412385149218349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +726,40 @@
         <v>0.093667</v>
       </c>
       <c r="I5">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J5">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4181826666666666</v>
+        <v>0.01941266666666666</v>
       </c>
       <c r="N5">
-        <v>1.254548</v>
+        <v>0.058238</v>
       </c>
       <c r="O5">
-        <v>0.2449873014729237</v>
+        <v>0.01959774779686022</v>
       </c>
       <c r="P5">
-        <v>0.2627048370182498</v>
+        <v>0.01978237955823044</v>
       </c>
       <c r="Q5">
-        <v>0.01305663861288889</v>
+        <v>0.0006061087495555555</v>
       </c>
       <c r="R5">
-        <v>0.117509747516</v>
+        <v>0.005454978746</v>
       </c>
       <c r="S5">
-        <v>0.01994837619889618</v>
+        <v>0.002253583707481723</v>
       </c>
       <c r="T5">
-        <v>0.02298205741970253</v>
+        <v>0.002746495498606369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>0.093667</v>
       </c>
       <c r="I6">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J6">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +806,10 @@
         <v>2.830225</v>
       </c>
       <c r="O6">
-        <v>0.5526844611056775</v>
+        <v>0.9524028256184742</v>
       </c>
       <c r="P6">
-        <v>0.5926547229360503</v>
+        <v>0.9613754796729409</v>
       </c>
       <c r="Q6">
         <v>0.02945540945277778</v>
@@ -821,10 +818,10 @@
         <v>0.265098685075</v>
       </c>
       <c r="S6">
-        <v>0.04500297559560969</v>
+        <v>0.1095186810760579</v>
       </c>
       <c r="T6">
-        <v>0.05184687509818484</v>
+        <v>0.1334729939651638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -853,10 +850,10 @@
         <v>0.093667</v>
       </c>
       <c r="I7">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J7">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +862,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3453655</v>
+        <v>0.027735</v>
       </c>
       <c r="N7">
-        <v>0.6907310000000001</v>
+        <v>0.05547</v>
       </c>
       <c r="O7">
-        <v>0.2023282374213989</v>
+        <v>0.02799942658466558</v>
       </c>
       <c r="P7">
-        <v>0.1446404400456999</v>
+        <v>0.01884214076882864</v>
       </c>
       <c r="Q7">
-        <v>0.01078311676283334</v>
+        <v>0.000865951415</v>
       </c>
       <c r="R7">
-        <v>0.06469870057700002</v>
+        <v>0.00519570849</v>
       </c>
       <c r="S7">
-        <v>0.01647481225139225</v>
+        <v>0.003219709337219973</v>
       </c>
       <c r="T7">
-        <v>0.0126534971189373</v>
+        <v>0.002615957026472326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,46 +906,46 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H8">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I8">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J8">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4181826666666666</v>
+        <v>0.01941266666666666</v>
       </c>
       <c r="N8">
-        <v>1.254548</v>
+        <v>0.058238</v>
       </c>
       <c r="O8">
-        <v>0.2449873014729237</v>
+        <v>0.01959774779686022</v>
       </c>
       <c r="P8">
-        <v>0.2627048370182498</v>
+        <v>0.01978237955823044</v>
       </c>
       <c r="Q8">
-        <v>0.03330218575133333</v>
+        <v>0.002715647646333333</v>
       </c>
       <c r="R8">
-        <v>0.199813114508</v>
+        <v>0.016293885878</v>
       </c>
       <c r="S8">
-        <v>0.05088021115613386</v>
+        <v>0.01009709774941458</v>
       </c>
       <c r="T8">
-        <v>0.03907860043871846</v>
+        <v>0.008203713763604991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +968,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H9">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I9">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J9">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +992,22 @@
         <v>2.830225</v>
       </c>
       <c r="O9">
-        <v>0.5526844611056775</v>
+        <v>0.9524028256184742</v>
       </c>
       <c r="P9">
-        <v>0.5926547229360503</v>
+        <v>0.9613754796729409</v>
       </c>
       <c r="Q9">
-        <v>0.07512879432916666</v>
+        <v>0.1319738634541667</v>
       </c>
       <c r="R9">
-        <v>0.450772765975</v>
+        <v>0.791843180725</v>
       </c>
       <c r="S9">
-        <v>0.1147843252066632</v>
+        <v>0.4906943658408065</v>
       </c>
       <c r="T9">
-        <v>0.08816022338457513</v>
+        <v>0.3986805142106345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1015,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1033,16 +1030,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H10">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I10">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J10">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,214 +1048,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.3453655</v>
+        <v>0.027735</v>
       </c>
       <c r="N10">
-        <v>0.6907310000000001</v>
+        <v>0.05547</v>
       </c>
       <c r="O10">
-        <v>0.2023282374213989</v>
+        <v>0.02799942658466558</v>
       </c>
       <c r="P10">
-        <v>0.1446404400456999</v>
+        <v>0.01884214076882864</v>
       </c>
       <c r="Q10">
-        <v>0.02750335427525</v>
+        <v>0.0038798630175</v>
       </c>
       <c r="R10">
-        <v>0.110013417101</v>
+        <v>0.01551945207</v>
       </c>
       <c r="S10">
-        <v>0.04202055935534652</v>
+        <v>0.01442578759984959</v>
       </c>
       <c r="T10">
-        <v>0.02151595694994249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J11">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.4181826666666666</v>
-      </c>
-      <c r="N11">
-        <v>1.254548</v>
-      </c>
-      <c r="O11">
-        <v>0.2449873014729237</v>
-      </c>
-      <c r="P11">
-        <v>0.2627048370182498</v>
-      </c>
-      <c r="Q11">
-        <v>0.1034953312022222</v>
-      </c>
-      <c r="R11">
-        <v>0.9314579808199999</v>
-      </c>
-      <c r="S11">
-        <v>0.1581236842699505</v>
-      </c>
-      <c r="T11">
-        <v>0.182170596497373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J12">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9434083333333333</v>
-      </c>
-      <c r="N12">
-        <v>2.830225</v>
-      </c>
-      <c r="O12">
-        <v>0.5526844611056775</v>
-      </c>
-      <c r="P12">
-        <v>0.5926547229360503</v>
-      </c>
-      <c r="Q12">
-        <v>0.2334825560694444</v>
-      </c>
-      <c r="R12">
-        <v>2.101343004625</v>
-      </c>
-      <c r="S12">
-        <v>0.3567225840007083</v>
-      </c>
-      <c r="T12">
-        <v>0.4109717415928107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J13">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.3453655</v>
-      </c>
-      <c r="N13">
-        <v>0.6907310000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.2023282374213989</v>
-      </c>
-      <c r="P13">
-        <v>0.1446404400456999</v>
-      </c>
-      <c r="Q13">
-        <v>0.08547393198583333</v>
-      </c>
-      <c r="R13">
-        <v>0.5128435919150001</v>
-      </c>
-      <c r="S13">
-        <v>0.1305899780950595</v>
-      </c>
-      <c r="T13">
-        <v>0.1002997719411509</v>
+        <v>0.007813798593137966</v>
       </c>
     </row>
   </sheetData>
